--- a/experiments_alpha.xlsx
+++ b/experiments_alpha.xlsx
@@ -1034,11 +1034,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="161547008"/>
-        <c:axId val="161567872"/>
+        <c:axId val="136499968"/>
+        <c:axId val="136502272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161547008"/>
+        <c:axId val="136499968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,12 +1063,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161567872"/>
+        <c:crossAx val="136502272"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161567872"/>
+        <c:axId val="136502272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1085,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Cantidad de matches filtrados</a:t>
+                  <a:t>Cantidad de correspondencias filtradas</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1094,8 +1094,8 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161547008"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="136499968"/>
+        <c:crossesAt val="-12"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1107,7 +1107,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1118,13 +1118,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1435,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
